--- a/7.33e/calc.xlsx
+++ b/7.33e/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17100" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Units</t>
   </si>
@@ -87,12 +87,12 @@
     <t>*</t>
   </si>
   <si>
+    <t>Hero</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>Hero</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -153,7 +153,7 @@
     <t>"MovementTurnRate"</t>
   </si>
   <si>
-    <t>"0.8"</t>
+    <t>"0.7"</t>
   </si>
   <si>
     <t>VisionDaytimeRange：1800</t>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>angle</t>
   </si>
   <si>
     <t>radius</t>
@@ -237,10 +240,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="[=1]g;General"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="[=0]g;General"/>
+    <numFmt numFmtId="176" formatCode="[=1]g;General"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="[=0]g;General"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="37">
@@ -1072,19 +1075,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1096,10 +1099,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,7 +1144,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1156,7 +1159,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1171,7 +1174,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1192,7 +1195,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1204,10 +1207,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1231,12 +1234,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1274,6 +1271,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,11 +1357,11 @@
       <color rgb="00F000D1"/>
       <color rgb="00FF8810"/>
       <color rgb="000584A7"/>
-      <color rgb="005F5F5F"/>
       <color rgb="007300FF"/>
       <color rgb="00FF17C6"/>
       <color rgb="00C09100"/>
       <color rgb="007B6EF4"/>
+      <color rgb="005F5F5F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1656,10 +1659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L50"/>
+  <dimension ref="B1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1748,12 +1751,10 @@
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
@@ -1761,23 +1762,23 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <f>C3*$D$6+$F$6</f>
+        <f>C3*$D$6</f>
         <v>207</v>
       </c>
       <c r="D7" s="13">
-        <f>D3*$D$6+$F$6</f>
+        <f>D3*$D$6</f>
         <v>66</v>
       </c>
       <c r="E7" s="13">
-        <f>E3*$D$6+$F$6</f>
+        <f>E3*$D$6</f>
         <v>171</v>
       </c>
       <c r="F7" s="13">
-        <f>F3*$D$6+$F$6</f>
+        <f>F3*$D$6</f>
         <v>75</v>
       </c>
       <c r="G7" s="14">
-        <f>G3*$D$6+$F$6</f>
+        <f>G3*$D$6</f>
         <v>264</v>
       </c>
     </row>
@@ -1786,24 +1787,24 @@
         <v>2</v>
       </c>
       <c r="C8" s="13">
-        <f>C4*$D$6+$F$6</f>
-        <v>129</v>
+        <f>C4*$E$6</f>
+        <v>215</v>
       </c>
       <c r="D8" s="13">
-        <f>D4*$D$6+$F$6</f>
-        <v>57</v>
+        <f>D4*$E$6</f>
+        <v>95</v>
       </c>
       <c r="E8" s="13">
-        <f>E4*$D$6+$F$6</f>
-        <v>102</v>
+        <f>E4*$E$6</f>
+        <v>170</v>
       </c>
       <c r="F8" s="13">
-        <f>F4*$D$6+$F$6</f>
-        <v>60</v>
+        <f>F4*$E$6</f>
+        <v>100</v>
       </c>
       <c r="G8" s="14">
-        <f>G4*$D$6+$F$6</f>
-        <v>177</v>
+        <f>G4*$E$6</f>
+        <v>295</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
@@ -1811,36 +1812,36 @@
         <v>3</v>
       </c>
       <c r="C9" s="16">
-        <f>C5*$D$6+$F$6</f>
-        <v>156</v>
+        <f>C5*$E$6</f>
+        <v>260</v>
       </c>
       <c r="D9" s="16">
-        <f>D5*$D$6+$F$6</f>
-        <v>75</v>
+        <f>D5*$E$6</f>
+        <v>125</v>
       </c>
       <c r="E9" s="16">
-        <f>E5*$D$6+$F$6</f>
-        <v>117</v>
+        <f>E5*$E$6</f>
+        <v>195</v>
       </c>
       <c r="F9" s="16">
-        <f>F5*$D$6+$F$6</f>
-        <v>78</v>
+        <f>F5*$E$6</f>
+        <v>130</v>
       </c>
       <c r="G9" s="17">
-        <f>G5*$D$6+$F$6</f>
-        <v>216</v>
+        <f>G5*$E$6</f>
+        <v>360</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:7">
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="19" t="s">
@@ -1852,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="21">
         <v>1</v>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="F12" s="23">
         <f>C12*D12+E12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="19">
         <f>F12-C12</f>
@@ -1874,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="21">
         <v>1</v>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="F13" s="23">
         <f t="shared" ref="F13:F27" si="0">C13*D13+E13</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" s="19">
         <f>F13-C13</f>
@@ -1896,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="25">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="21">
         <v>0.9</v>
@@ -1906,11 +1907,11 @@
       </c>
       <c r="F14" s="26">
         <f t="shared" si="0"/>
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="G14" s="19">
         <f>F14-C14</f>
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:7">
@@ -1918,7 +1919,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="25">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D15" s="21">
         <v>0.8</v>
@@ -1928,11 +1929,11 @@
       </c>
       <c r="F15" s="26">
         <f t="shared" si="0"/>
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="G15" s="19">
         <f>F15-C15</f>
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:7">
@@ -1940,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="28">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="D16" s="21">
         <v>1.2</v>
@@ -1950,11 +1951,11 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="G16" s="19">
         <f>F16-C16</f>
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
@@ -1962,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="31">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="D17" s="21">
         <v>1.3</v>
@@ -1972,11 +1973,11 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" ref="G17:G27" si="1">F17-C17</f>
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:10">
@@ -1984,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="21">
         <v>1</v>
@@ -1994,7 +1995,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="1"/>
@@ -2007,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="36">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
@@ -2017,7 +2018,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="1"/>
@@ -2028,11 +2029,11 @@
       </c>
       <c r="I19" s="37">
         <f>F19*29+F18</f>
-        <v>104.2</v>
+        <v>92.5</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" ref="J19:J23" si="2">C19*29+C18</f>
-        <v>87.7</v>
+        <v>76</v>
       </c>
       <c r="K19" s="61">
         <f t="shared" ref="K19:K23" si="3">I19-J19</f>
@@ -2044,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="21">
         <v>1</v>
@@ -2054,7 +2055,7 @@
       </c>
       <c r="F20" s="40">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="1"/>
@@ -2068,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="41">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D21" s="21">
         <v>1</v>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="F21" s="40">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="1"/>
@@ -2089,11 +2090,11 @@
       </c>
       <c r="I21" s="42">
         <f>F21*29+F20</f>
-        <v>99.3</v>
+        <v>104.1</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="2"/>
-        <v>82.8</v>
+        <v>87.6</v>
       </c>
       <c r="K21" s="61">
         <f t="shared" si="3"/>
@@ -2105,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="44">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22" s="21">
         <v>1</v>
@@ -2115,7 +2116,7 @@
       </c>
       <c r="F22" s="45">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G22" s="19">
         <f t="shared" si="1"/>
@@ -2129,7 +2130,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="46">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="D23" s="21">
         <v>1</v>
@@ -2139,7 +2140,7 @@
       </c>
       <c r="F23" s="45">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" si="1"/>
@@ -2150,11 +2151,11 @@
       </c>
       <c r="I23" s="47">
         <f>F23*29+F22</f>
-        <v>107.2</v>
+        <v>74.1</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="2"/>
-        <v>90.7</v>
+        <v>57.6</v>
       </c>
       <c r="K23" s="61">
         <f t="shared" si="3"/>
@@ -2188,7 +2189,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="21">
         <v>1.2</v>
@@ -2198,18 +2199,18 @@
       </c>
       <c r="F25" s="53">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="G25" s="19">
         <f t="shared" si="1"/>
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H25" s="54" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="84">
         <f>0.03*3.14/F25</f>
-        <v>0.112142857142857</v>
+        <v>0.098125</v>
       </c>
       <c r="J25" s="85" t="s">
         <v>26</v>
@@ -2288,11 +2289,11 @@
         <v>34</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="18">
         <f>D30-C30</f>
-        <v>-0.4</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
@@ -2302,26 +2303,26 @@
         <v>35</v>
       </c>
       <c r="C30" s="20">
-        <v>1.9</v>
+        <v>350</v>
       </c>
       <c r="D30" s="20">
-        <v>1.5</v>
+        <v>425</v>
       </c>
       <c r="E30" s="20">
         <f>D30+$D$29</f>
-        <v>1.1</v>
+        <v>500</v>
       </c>
       <c r="F30" s="23">
         <f>E30+$D$29</f>
-        <v>0.7</v>
+        <v>575</v>
       </c>
       <c r="G30" s="61">
         <f>F30+$D$29</f>
-        <v>0.3</v>
+        <v>650</v>
       </c>
       <c r="H30" s="61">
         <f>G30+$D$29</f>
-        <v>-0.0999999999999996</v>
+        <v>725</v>
       </c>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
@@ -2347,40 +2348,40 @@
       </c>
       <c r="C32" s="20">
         <f>C30*$D$31</f>
-        <v>1.425</v>
+        <v>262.5</v>
       </c>
       <c r="D32" s="20">
         <f t="shared" ref="D32:J32" si="4">D30*$D$31</f>
-        <v>1.125</v>
+        <v>318.75</v>
       </c>
       <c r="E32" s="20">
         <f t="shared" si="4"/>
-        <v>0.825</v>
+        <v>375</v>
       </c>
       <c r="F32" s="23">
         <f t="shared" si="4"/>
-        <v>0.525</v>
+        <v>431.25</v>
       </c>
       <c r="G32" s="61">
         <f t="shared" si="4"/>
-        <v>0.225</v>
+        <v>487.5</v>
       </c>
       <c r="H32" s="61">
         <f t="shared" si="4"/>
-        <v>-0.0749999999999997</v>
+        <v>543.75</v>
       </c>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
     </row>
     <row r="33" customHeight="1" spans="2:6">
       <c r="B33" s="65"/>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="63">
         <v>2</v>
       </c>
-      <c r="E33" s="67"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" customHeight="1" spans="2:6">
@@ -2388,156 +2389,138 @@
         <v>37</v>
       </c>
       <c r="C34" s="7">
-        <v>140</v>
+        <v>0.65</v>
       </c>
       <c r="D34" s="7">
         <f>C34*D33</f>
-        <v>280</v>
+        <v>1.3</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="65"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:6">
+      <c r="B36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="D35" s="69">
-        <f>C35*(1+C35)</f>
-        <v>0.3125</v>
-      </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
-    </row>
-    <row r="37" customHeight="1" spans="2:7">
-      <c r="B37" s="60"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="18" t="s">
+      <c r="C36" s="66">
+        <v>-0.2</v>
+      </c>
+      <c r="D36" s="67">
+        <f>C36*(1+C36)</f>
+        <v>-0.16</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:7">
+      <c r="B38" s="60"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="19" t="s">
+      <c r="E38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="71" t="s">
+    <row r="39" customHeight="1" spans="2:7">
+      <c r="B39" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="72">
-        <v>500</v>
-      </c>
-      <c r="D38" s="21">
+      <c r="C39" s="70">
+        <v>1500</v>
+      </c>
+      <c r="D39" s="21">
         <v>1.5</v>
-      </c>
-      <c r="E38" s="22">
-        <v>0</v>
-      </c>
-      <c r="F38" s="73">
-        <f t="shared" ref="F38:F43" si="5">C38*D38+E38</f>
-        <v>750</v>
-      </c>
-      <c r="G38" s="74">
-        <f t="shared" ref="G38:G43" si="6">F38-C38</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="76">
-        <v>0</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0</v>
       </c>
       <c r="E39" s="22">
         <v>0</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="71">
+        <f t="shared" ref="F39:F44" si="5">C39*D39+E39</f>
+        <v>2250</v>
+      </c>
+      <c r="G39" s="72">
+        <f t="shared" ref="G39:G44" si="6">F39-C39</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:7">
+      <c r="B40" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="74">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="78" t="s">
+    <row r="41" customHeight="1" spans="2:7">
+      <c r="B41" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="79">
-        <v>18</v>
-      </c>
-      <c r="D40" s="21">
+      <c r="C41" s="77">
+        <v>30</v>
+      </c>
+      <c r="D41" s="21">
         <v>0.9</v>
-      </c>
-      <c r="E40" s="22">
-        <v>0</v>
-      </c>
-      <c r="F40" s="80">
-        <f t="shared" si="5"/>
-        <v>16.2</v>
-      </c>
-      <c r="G40" s="19">
-        <f t="shared" si="6"/>
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="39">
-        <v>100</v>
-      </c>
-      <c r="D41" s="21">
-        <v>0.8</v>
       </c>
       <c r="E41" s="22">
         <v>0</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="78">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="G41" s="19">
         <f t="shared" si="6"/>
-        <v>-20</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="20">
-        <v>2</v>
+      <c r="B42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="39">
+        <v>150</v>
       </c>
       <c r="D42" s="21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E42" s="22">
-        <v>1</v>
-      </c>
-      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="F42" s="40">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G42" s="19">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:7">
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="20">
         <v>2</v>
@@ -2558,153 +2541,197 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="20">
+        <v>2</v>
+      </c>
+      <c r="D44" s="21">
+        <v>1</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="19">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:7">
+      <c r="B45" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="34">
-        <v>900</v>
-      </c>
-      <c r="D44" s="21">
+      <c r="C45" s="34">
+        <v>240</v>
+      </c>
+      <c r="D45" s="21">
         <v>2</v>
-      </c>
-      <c r="E44" s="22">
-        <v>0</v>
-      </c>
-      <c r="F44" s="35">
-        <f t="shared" ref="F44:F50" si="7">C44*D44+E44</f>
-        <v>1800</v>
-      </c>
-      <c r="G44" s="19">
-        <f t="shared" ref="G44:G50" si="8">F44-C44</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="44">
-        <v>90</v>
-      </c>
-      <c r="D45" s="21">
-        <v>1.6</v>
       </c>
       <c r="E45" s="22">
         <v>0</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="35">
+        <f t="shared" ref="F45:F52" si="7">C45*D45+E45</f>
+        <v>480</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" ref="G45:G52" si="8">F45-C45</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:7">
+      <c r="B46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="44">
+        <v>75</v>
+      </c>
+      <c r="D46" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="45">
         <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="G45" s="19">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="79">
-        <v>170</v>
-      </c>
-      <c r="D46" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="80">
-        <f t="shared" si="7"/>
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="G46" s="19">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="20">
-        <v>2</v>
+      <c r="B47" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="74">
+        <v>23</v>
       </c>
       <c r="D47" s="21">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E47" s="22">
         <v>0</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="79">
         <f t="shared" si="7"/>
-        <v>2.4</v>
+        <v>36.8</v>
       </c>
       <c r="G47" s="19">
         <f t="shared" si="8"/>
-        <v>0.4</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="82">
-        <v>0.4</v>
+      <c r="B48" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="77">
+        <v>1000</v>
       </c>
       <c r="D48" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0</v>
-      </c>
-      <c r="F48" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="80">
         <f t="shared" si="7"/>
-        <v>0.32</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="19">
         <f t="shared" si="8"/>
-        <v>-0.08</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="25">
-        <v>200</v>
+      <c r="B49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="20">
+        <v>3</v>
       </c>
       <c r="D49" s="21">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E49" s="22">
-        <v>400</v>
-      </c>
-      <c r="F49" s="26">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
         <f t="shared" si="7"/>
-        <v>800</v>
+        <v>3.6</v>
       </c>
       <c r="G49" s="19">
         <f t="shared" si="8"/>
-        <v>600</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="82">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="83">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="19">
+        <f t="shared" si="8"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:7">
+      <c r="B51" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C51" s="25">
+        <v>400</v>
+      </c>
+      <c r="D51" s="21">
+        <v>2</v>
+      </c>
+      <c r="E51" s="22">
+        <v>400</v>
+      </c>
+      <c r="F51" s="26">
+        <f t="shared" si="7"/>
+        <v>1200</v>
+      </c>
+      <c r="G51" s="19">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:7">
+      <c r="B52" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="56">
         <v>3.34</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D52" s="57">
         <v>2</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E52" s="58">
         <v>3</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F52" s="59">
         <f t="shared" si="7"/>
         <v>9.68</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G52" s="19">
         <f t="shared" si="8"/>
         <v>6.34</v>
       </c>
@@ -2719,7 +2746,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c84f21e0-f278-47d4-ae11-df60064f0619}</x14:id>
+          <x14:id>{ba4ff44b-4244-48f4-9259-fefe4a2ab717}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2733,7 +2760,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{945fee5f-6f22-4e71-be60-495682cd5d35}</x14:id>
+          <x14:id>{a3cc5496-dc40-4709-b506-0f6e3ef34245}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2746,7 +2773,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c84f21e0-f278-47d4-ae11-df60064f0619}">
+          <x14:cfRule type="dataBar" id="{ba4ff44b-4244-48f4-9259-fefe4a2ab717}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2757,7 +2784,7 @@
           <xm:sqref>C30:J30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{945fee5f-6f22-4e71-be60-495682cd5d35}">
+          <x14:cfRule type="dataBar" id="{a3cc5496-dc40-4709-b506-0f6e3ef34245}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/7.33e/calc.xlsx
+++ b/7.33e/calc.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Units</t>
   </si>
@@ -177,58 +177,70 @@
     <t>Abilities</t>
   </si>
   <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>value3</t>
-  </si>
-  <si>
-    <t>value4</t>
-  </si>
-  <si>
-    <t>AbilityCastRange</t>
-  </si>
-  <si>
-    <t>AbilityCastPoint</t>
-  </si>
-  <si>
-    <t>AbilityCooldown</t>
-  </si>
-  <si>
-    <t>AbilityManaCost</t>
-  </si>
-  <si>
-    <t>AbilityCharges</t>
-  </si>
-  <si>
-    <t>max_charges</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>duration2</t>
-  </si>
-  <si>
-    <t>vision_radius</t>
-  </si>
-  <si>
-    <t>vision_duration</t>
+    <t>value1  伤害</t>
+  </si>
+  <si>
+    <t>value2  实际</t>
+  </si>
+  <si>
+    <t>value3  天赋</t>
+  </si>
+  <si>
+    <t>value4  概率</t>
+  </si>
+  <si>
+    <t>AbilityCastRange  距离</t>
+  </si>
+  <si>
+    <t>AbilityCastPoint  前摇</t>
+  </si>
+  <si>
+    <t>AbilityCooldown  冷却</t>
+  </si>
+  <si>
+    <t>AbilityManaCost  魔耗</t>
+  </si>
+  <si>
+    <t>AbilityCharges  充能</t>
+  </si>
+  <si>
+    <t>max_charges  上限</t>
+  </si>
+  <si>
+    <t>speed  速度</t>
+  </si>
+  <si>
+    <t>width  宽度</t>
+  </si>
+  <si>
+    <t>angle  角度</t>
+  </si>
+  <si>
+    <t>radius  范围</t>
+  </si>
+  <si>
+    <t>duration  持续/倍数</t>
+  </si>
+  <si>
+    <t>duration2  反应/减伤</t>
+  </si>
+  <si>
+    <t>vision_radius  视野</t>
+  </si>
+  <si>
+    <t>vision_duration  视觉</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>n*(n+1)</t>
+  </si>
+  <si>
+    <t>n*1.2</t>
+  </si>
+  <si>
+    <t>倍数</t>
   </si>
 </sst>
 </file>
@@ -240,13 +252,13 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[=1]g;General"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="[=1]g;General"/>
     <numFmt numFmtId="178" formatCode="[=0]g;General"/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +274,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -321,6 +333,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF7300FF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFF000D1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -339,7 +357,13 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="8" tint="-0.25"/>
+      <color theme="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -699,7 +723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -782,6 +806,43 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -893,10 +954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,140 +966,194 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1063,196 +1178,202 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,7 +1382,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,12 +1397,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1286,6 +1404,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1352,16 +1494,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="000B5FD1"/>
-      <color rgb="0036D6E0"/>
-      <color rgb="00F000D1"/>
       <color rgb="00FF8810"/>
       <color rgb="000584A7"/>
-      <color rgb="007300FF"/>
       <color rgb="00FF17C6"/>
       <color rgb="00C09100"/>
       <color rgb="007B6EF4"/>
       <color rgb="005F5F5F"/>
+      <color rgb="008523FF"/>
+      <color rgb="007300FF"/>
+      <color rgb="00F000D1"/>
+      <color rgb="0036D6E0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1661,1084 +1803,1089 @@
   <sheetPr/>
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="1.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="10" customHeight="1"/>
     <row r="2" customHeight="1" spans="2:7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" customHeight="1" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="25">
         <v>69</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="25">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="25">
         <v>57</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="25">
         <v>25</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="26">
         <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="25">
         <v>43</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="25">
         <v>19</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="25">
         <v>34</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="25">
         <v>20</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="26">
         <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="25">
         <v>52</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="25">
         <v>25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="25">
         <v>39</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="25">
         <v>26</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="26">
         <v>72</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" s="19" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="29">
+        <v>4</v>
+      </c>
+      <c r="E6" s="29">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:7">
+      <c r="B7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="31">
+        <f>C3*$D$6</f>
+        <v>276</v>
+      </c>
+      <c r="D7" s="31">
+        <f>D3*$D$6</f>
+        <v>88</v>
+      </c>
+      <c r="E7" s="31">
+        <f>E3*$D$6</f>
+        <v>228</v>
+      </c>
+      <c r="F7" s="31">
+        <f>F3*$D$6</f>
+        <v>100</v>
+      </c>
+      <c r="G7" s="32">
+        <f>G3*$D$6</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:7">
+      <c r="B8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31">
+        <f>C4*$E$6</f>
+        <v>172</v>
+      </c>
+      <c r="D8" s="31">
+        <f>D4*$E$6</f>
+        <v>76</v>
+      </c>
+      <c r="E8" s="31">
+        <f>E4*$E$6</f>
+        <v>136</v>
+      </c>
+      <c r="F8" s="31">
+        <f>F4*$E$6</f>
+        <v>80</v>
+      </c>
+      <c r="G8" s="32">
+        <f>G4*$E$6</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:7">
+      <c r="B9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="C9" s="34">
+        <f>C5*$E$6</f>
+        <v>208</v>
+      </c>
+      <c r="D9" s="34">
+        <f>D5*$E$6</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="34">
+        <f>E5*$E$6</f>
+        <v>156</v>
+      </c>
+      <c r="F9" s="34">
+        <f>F5*$E$6</f>
+        <v>104</v>
+      </c>
+      <c r="G9" s="35">
+        <f>G5*$E$6</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:7">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="9" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:7">
+      <c r="B12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="38">
+        <v>20</v>
+      </c>
+      <c r="D12" s="39">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
-        <f>C3*$D$6</f>
-        <v>207</v>
-      </c>
-      <c r="D7" s="13">
-        <f>D3*$D$6</f>
-        <v>66</v>
-      </c>
-      <c r="E7" s="13">
-        <f>E3*$D$6</f>
-        <v>171</v>
-      </c>
-      <c r="F7" s="13">
-        <f>F3*$D$6</f>
-        <v>75</v>
-      </c>
-      <c r="G7" s="14">
-        <f>G3*$D$6</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13">
-        <f>C4*$E$6</f>
-        <v>215</v>
-      </c>
-      <c r="D8" s="13">
-        <f>D4*$E$6</f>
-        <v>95</v>
-      </c>
-      <c r="E8" s="13">
-        <f>E4*$E$6</f>
-        <v>170</v>
-      </c>
-      <c r="F8" s="13">
-        <f>F4*$E$6</f>
-        <v>100</v>
-      </c>
-      <c r="G8" s="14">
-        <f>G4*$E$6</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16">
-        <f>C5*$E$6</f>
-        <v>260</v>
-      </c>
-      <c r="D9" s="16">
-        <f>D5*$E$6</f>
-        <v>125</v>
-      </c>
-      <c r="E9" s="16">
-        <f>E5*$E$6</f>
-        <v>195</v>
-      </c>
-      <c r="F9" s="16">
-        <f>F5*$E$6</f>
-        <v>130</v>
-      </c>
-      <c r="G9" s="17">
-        <f>G5*$E$6</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="3" t="s">
+      <c r="E12" s="40">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:7">
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="20">
-        <v>5</v>
-      </c>
-      <c r="D12" s="21">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22">
-        <v>5</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="F12" s="41">
         <f>C12*D12+E12</f>
-        <v>10</v>
-      </c>
-      <c r="G12" s="19">
+        <v>25</v>
+      </c>
+      <c r="G12" s="37">
         <f>F12-C12</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:7">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="20">
-        <v>11</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="38">
+        <v>22</v>
+      </c>
+      <c r="D13" s="39">
         <v>1</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="40">
         <v>5</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="41">
         <f t="shared" ref="F13:F27" si="0">C13*D13+E13</f>
-        <v>16</v>
-      </c>
-      <c r="G13" s="19">
+        <v>27</v>
+      </c>
+      <c r="G13" s="37">
         <f>F13-C13</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="43">
+        <v>1.4</v>
+      </c>
+      <c r="D14" s="39">
         <v>0.9</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="40">
         <v>0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="44">
         <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-      <c r="G14" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="G14" s="37">
         <f>F14-C14</f>
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="43">
+        <v>0.33</v>
+      </c>
+      <c r="D15" s="39">
         <v>0.8</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="40">
         <v>0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="44">
         <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="G15" s="19">
+        <v>0.264</v>
+      </c>
+      <c r="G15" s="37">
         <f>F15-C15</f>
-        <v>-0.08</v>
+        <v>-0.066</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="28">
-        <v>600</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="46">
+        <v>150</v>
+      </c>
+      <c r="D16" s="39">
         <v>1.2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="40">
         <v>0</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="47">
         <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="G16" s="19">
+        <v>180</v>
+      </c>
+      <c r="G16" s="37">
         <f>F16-C16</f>
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="49">
         <v>1250</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="39">
         <v>1.3</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="40">
         <v>0</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>1625</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="37">
         <f t="shared" ref="G17:G27" si="1">F17-C17</f>
         <v>375</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:10">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="34">
-        <v>18</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="52">
+        <v>20</v>
+      </c>
+      <c r="D18" s="39">
         <v>1</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="40">
         <v>2</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="53">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G18" s="19">
+        <v>22</v>
+      </c>
+      <c r="G18" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" customHeight="1" spans="2:11">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="36">
-        <v>2</v>
-      </c>
-      <c r="D19" s="21">
+      <c r="C19" s="54">
+        <v>2.2</v>
+      </c>
+      <c r="D19" s="39">
         <v>1</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="40">
         <v>0.5</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="53">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="G19" s="37">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="55">
         <f>F19*29+F18</f>
-        <v>92.5</v>
-      </c>
-      <c r="J19" s="19">
+        <v>100.3</v>
+      </c>
+      <c r="J19" s="37">
         <f t="shared" ref="J19:J23" si="2">C19*29+C18</f>
-        <v>76</v>
-      </c>
-      <c r="K19" s="61">
+        <v>83.8</v>
+      </c>
+      <c r="K19" s="86">
         <f t="shared" ref="K19:K23" si="3">I19-J19</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:11">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="39">
-        <v>18</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="57">
+        <v>14</v>
+      </c>
+      <c r="D20" s="39">
         <v>1</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="40">
         <v>2</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="58">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G20" s="19">
+        <v>16</v>
+      </c>
+      <c r="G20" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="61"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" customHeight="1" spans="2:11">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="41">
-        <v>2.4</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="C21" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="40">
         <v>0.5</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="58">
         <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-      <c r="G21" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="G21" s="37">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="60">
         <f>F21*29+F20</f>
-        <v>104.1</v>
-      </c>
-      <c r="J21" s="19">
+        <v>71.1</v>
+      </c>
+      <c r="J21" s="37">
         <f t="shared" si="2"/>
-        <v>87.6</v>
-      </c>
-      <c r="K21" s="61">
+        <v>54.6</v>
+      </c>
+      <c r="K21" s="86">
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:11">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="44">
-        <v>17</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="62">
+        <v>34</v>
+      </c>
+      <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="40">
         <v>2</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="63">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G22" s="19">
+        <v>36</v>
+      </c>
+      <c r="G22" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="61"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="86"/>
     </row>
     <row r="23" customHeight="1" spans="2:11">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="46">
-        <v>1.4</v>
-      </c>
-      <c r="D23" s="21">
+      <c r="C23" s="64">
+        <v>2.8</v>
+      </c>
+      <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="40">
         <v>0.5</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="63">
         <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="G23" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="G23" s="37">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="65">
         <f>F23*29+F22</f>
-        <v>74.1</v>
-      </c>
-      <c r="J23" s="19">
+        <v>131.7</v>
+      </c>
+      <c r="J23" s="37">
         <f t="shared" si="2"/>
-        <v>57.6</v>
-      </c>
-      <c r="K23" s="61">
+        <v>115.2</v>
+      </c>
+      <c r="K23" s="86">
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="49">
-        <v>290</v>
-      </c>
-      <c r="D24" s="21">
+      <c r="C24" s="67">
+        <v>300</v>
+      </c>
+      <c r="D24" s="39">
         <v>1.1</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="40">
         <v>0</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="68">
         <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="G24" s="19">
+        <v>330</v>
+      </c>
+      <c r="G24" s="37">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:12">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="D25" s="21">
+      <c r="C25" s="70">
+        <v>0.6</v>
+      </c>
+      <c r="D25" s="39">
         <v>1.2</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="40">
         <v>0</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="71">
         <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-      <c r="G25" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="G25" s="37">
         <f t="shared" si="1"/>
-        <v>0.16</v>
-      </c>
-      <c r="H25" s="54" t="s">
+        <v>0.12</v>
+      </c>
+      <c r="H25" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="111">
         <f>0.03*3.14/F25</f>
-        <v>0.098125</v>
-      </c>
-      <c r="J25" s="85" t="s">
+        <v>0.130833333333333</v>
+      </c>
+      <c r="J25" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="85" t="s">
+      <c r="K25" s="72"/>
+      <c r="L25" s="112" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:12">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="43">
         <v>1800</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="40">
         <v>200</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="44">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="37">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87" t="s">
+      <c r="I26" s="113"/>
+      <c r="J26" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87" t="s">
+      <c r="K26" s="114"/>
+      <c r="L26" s="114" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:12">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="74">
         <v>800</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="75">
         <v>1</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="76">
         <v>400</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="77">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="37">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="J27" s="87" t="s">
+      <c r="J27" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87" t="s">
+      <c r="K27" s="114"/>
+      <c r="L27" s="114" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="10:12">
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
     </row>
     <row r="29" customHeight="1" spans="2:6">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="36">
         <f>D30-C30</f>
-        <v>75</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" customHeight="1" spans="2:10">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="20">
-        <v>350</v>
-      </c>
-      <c r="D30" s="20">
-        <v>425</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="C30" s="38">
+        <v>3</v>
+      </c>
+      <c r="D30" s="38">
+        <v>3.25</v>
+      </c>
+      <c r="E30" s="79">
         <f>D30+$D$29</f>
-        <v>500</v>
-      </c>
-      <c r="F30" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="F30" s="80">
         <f>E30+$D$29</f>
-        <v>575</v>
-      </c>
-      <c r="G30" s="61">
+        <v>3.75</v>
+      </c>
+      <c r="G30" s="81">
         <f>F30+$D$29</f>
-        <v>650</v>
-      </c>
-      <c r="H30" s="61">
+        <v>4</v>
+      </c>
+      <c r="H30" s="82">
         <f>G30+$D$29</f>
-        <v>725</v>
-      </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+        <v>4.25</v>
+      </c>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" customHeight="1" spans="2:10">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63" t="s">
+      <c r="B31" s="83"/>
+      <c r="C31" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="85">
         <v>0.75</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" customHeight="1" spans="2:10">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="38">
         <f>C30*$D$31</f>
-        <v>262.5</v>
-      </c>
-      <c r="D32" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="D32" s="38">
         <f t="shared" ref="D32:J32" si="4">D30*$D$31</f>
-        <v>318.75</v>
-      </c>
-      <c r="E32" s="20">
+        <v>2.4375</v>
+      </c>
+      <c r="E32" s="79">
         <f t="shared" si="4"/>
-        <v>375</v>
-      </c>
-      <c r="F32" s="23">
+        <v>2.625</v>
+      </c>
+      <c r="F32" s="80">
         <f t="shared" si="4"/>
-        <v>431.25</v>
-      </c>
-      <c r="G32" s="61">
+        <v>2.8125</v>
+      </c>
+      <c r="G32" s="81">
         <f t="shared" si="4"/>
-        <v>487.5</v>
-      </c>
-      <c r="H32" s="61">
+        <v>3</v>
+      </c>
+      <c r="H32" s="82">
         <f t="shared" si="4"/>
-        <v>543.75</v>
-      </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
+        <v>3.1875</v>
+      </c>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="65"/>
-      <c r="C33" s="63" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="84">
         <v>2</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" customHeight="1" spans="2:6">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="62">
         <v>0.65</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="62">
         <f>C34*D33</f>
         <v>1.3</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="65"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="66">
-        <v>-0.2</v>
-      </c>
-      <c r="D36" s="67">
-        <f>C36*(1+C36)</f>
-        <v>-0.16</v>
-      </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
+      <c r="C36" s="89">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="90">
+        <f>C36*D35</f>
+        <v>0.72</v>
+      </c>
+      <c r="E36" s="91"/>
+      <c r="F36" s="92"/>
     </row>
     <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="60"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="18" t="s">
+      <c r="B38" s="78"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="19" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="70">
-        <v>1500</v>
-      </c>
-      <c r="D39" s="21">
+      <c r="C39" s="94">
+        <v>550</v>
+      </c>
+      <c r="D39" s="39">
         <v>1.5</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="40">
         <v>0</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="95">
         <f t="shared" ref="F39:F44" si="5">C39*D39+E39</f>
-        <v>2250</v>
-      </c>
-      <c r="G39" s="72">
+        <v>825</v>
+      </c>
+      <c r="G39" s="96">
         <f t="shared" ref="G39:G44" si="6">F39-C39</f>
-        <v>750</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="98">
         <v>0</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="39">
         <v>0</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="40">
         <v>0</v>
       </c>
-      <c r="F40" s="75">
+      <c r="F40" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="77">
-        <v>30</v>
-      </c>
-      <c r="D41" s="21">
+      <c r="C41" s="101">
+        <v>20</v>
+      </c>
+      <c r="D41" s="39">
         <v>0.9</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="40">
         <v>0</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="102">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="G41" s="19">
+        <v>18</v>
+      </c>
+      <c r="G41" s="37">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="39">
-        <v>150</v>
-      </c>
-      <c r="D42" s="21">
+      <c r="C42" s="57">
+        <v>200</v>
+      </c>
+      <c r="D42" s="39">
         <v>0.8</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="40">
         <v>0</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="58">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="G42" s="19">
+        <v>160</v>
+      </c>
+      <c r="G42" s="37">
         <f t="shared" si="6"/>
-        <v>-30</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="38">
         <v>2</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="39">
         <v>1</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="40">
         <v>1</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="41">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="37">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="38">
         <v>2</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="39">
         <v>1</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="40">
         <v>1</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="41">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="37">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="34">
-        <v>240</v>
-      </c>
-      <c r="D45" s="21">
+      <c r="C45" s="52">
+        <v>75</v>
+      </c>
+      <c r="D45" s="39">
         <v>2</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="40">
         <v>0</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="53">
         <f t="shared" ref="F45:F52" si="7">C45*D45+E45</f>
-        <v>480</v>
-      </c>
-      <c r="G45" s="19">
+        <v>150</v>
+      </c>
+      <c r="G45" s="37">
         <f t="shared" ref="G45:G52" si="8">F45-C45</f>
-        <v>240</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="62">
         <v>75</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="39">
         <v>1.6</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="40">
         <v>0</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="63">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="37">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="98">
         <v>23</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="39">
         <v>1.6</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="40">
         <v>0</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="103">
         <f t="shared" si="7"/>
         <v>36.8</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="37">
         <f t="shared" si="8"/>
         <v>13.8</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="77">
-        <v>1000</v>
-      </c>
-      <c r="D48" s="21">
+      <c r="C48" s="101">
+        <v>425</v>
+      </c>
+      <c r="D48" s="39">
         <v>1.5</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="80">
+      <c r="E48" s="40"/>
+      <c r="F48" s="104">
         <f t="shared" si="7"/>
-        <v>1500</v>
-      </c>
-      <c r="G48" s="19">
+        <v>637.5</v>
+      </c>
+      <c r="G48" s="37">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="20">
-        <v>3</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="C49" s="106">
+        <v>1</v>
+      </c>
+      <c r="D49" s="39">
         <v>1.2</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="40">
         <v>0</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="107">
         <f t="shared" si="7"/>
-        <v>3.6</v>
-      </c>
-      <c r="G49" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G49" s="37">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="82">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="21">
+      <c r="C50" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="D50" s="39">
         <v>0.8</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="40">
         <v>0</v>
       </c>
-      <c r="F50" s="83">
+      <c r="F50" s="110">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="G50" s="37">
         <f t="shared" si="8"/>
-        <v>-0.25</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="43">
         <v>400</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="39">
         <v>2</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="40">
         <v>400</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="44">
         <f t="shared" si="7"/>
         <v>1200</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="37">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="56">
+      <c r="C52" s="74">
         <v>3.34</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="75">
         <v>2</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="76">
         <v>3</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="77">
         <f t="shared" si="7"/>
         <v>9.68</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="37">
         <f t="shared" si="8"/>
         <v>6.34</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:J30">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2746,12 +2893,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba4ff44b-4244-48f4-9259-fefe4a2ab717}</x14:id>
+          <x14:id>{bd5ac65a-25de-46d8-8d91-91aadf75883a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:J32">
+  <conditionalFormatting sqref="C30:H30">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6fbf4045-186a-4b6a-bcfe-e61038ff5eef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2760,7 +2919,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3cc5496-dc40-4709-b506-0f6e3ef34245}</x14:id>
+          <x14:id>{ccd12b24-398e-4f63-b886-2c7baa016e00}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:J32">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b3f9bf26-3736-4a31-9a67-cc0858aee72d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:H32">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a971b412-a997-4acb-a742-866220251ce4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2773,7 +2960,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba4ff44b-4244-48f4-9259-fefe4a2ab717}">
+          <x14:cfRule type="dataBar" id="{bd5ac65a-25de-46d8-8d91-91aadf75883a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2784,7 +2971,26 @@
           <xm:sqref>C30:J30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a3cc5496-dc40-4709-b506-0f6e3ef34245}">
+          <x14:cfRule type="dataBar" id="{6fbf4045-186a-4b6a-bcfe-e61038ff5eef}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ccd12b24-398e-4f63-b886-2c7baa016e00}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b3f9bf26-3736-4a31-9a67-cc0858aee72d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2793,6 +2999,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C32:J32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a971b412-a997-4acb-a742-866220251ce4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C32:H32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2803,17 +3020,757 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="10" customHeight="1"/>
+    <row r="2" customHeight="1" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:7">
+      <c r="B3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3*(B3+1)</f>
+        <v>0.0525</v>
+      </c>
+      <c r="D3" s="7">
+        <f>B3*1.2</f>
+        <v>0.06</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="9">
+        <f>F3*1.2</f>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:7">
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C22" si="0">B4*(B4+1)</f>
+        <v>0.11</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D22" si="1">B4*1.2</f>
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G22" si="2">F4*1.2</f>
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:7">
+      <c r="B5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1725</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="2"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:7">
+      <c r="B6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:7">
+      <c r="B7" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:7">
+      <c r="B8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="2"/>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:7">
+      <c r="B9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4725</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="2"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:7">
+      <c r="B10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.56</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:7">
+      <c r="B11" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6525</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:7">
+      <c r="B12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:7">
+      <c r="B13" s="5">
+        <v>0.55</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8525</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="2"/>
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:7">
+      <c r="B14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="2"/>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:7">
+      <c r="B15" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="2"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:7">
+      <c r="B16" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="2"/>
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:7">
+      <c r="B19" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="2"/>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:7">
+      <c r="B20" s="5">
+        <v>0.899999999999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="2"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:7">
+      <c r="B21" s="5">
+        <v>0.949999999999999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="2"/>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:7">
+      <c r="B22" s="12">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>5</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:6">
+      <c r="B23" s="10"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:6">
+      <c r="B24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:6">
+      <c r="B25" s="10"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:6">
+      <c r="B26" s="10"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:6">
+      <c r="B27" s="10"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:6">
+      <c r="B28" s="10"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:6">
+      <c r="B29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:6">
+      <c r="B30" s="10"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:6">
+      <c r="B31" s="10"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:6">
+      <c r="B32" s="10"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" customHeight="1" spans="3:5">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" customHeight="1" spans="3:5">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" customHeight="1" spans="3:5">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:5">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3f386698-a074-470b-bf2f-e1a5ed755d26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b7ad8c5d-327c-482d-8894-42b86f49cb31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ac2de00c-ec7d-4080-b9aa-6463c5abff3e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d218acc2-3971-42ef-b27b-01622b9470ce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B22">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{057b92cd-59b1-4dfb-8598-ab58c9fb0bb1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1ed02ec9-6e6e-42cf-8197-c9603bfb7398}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0e91aef8-d458-4a33-9a46-d2538e223f4a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{acef8ef4-5e20-4932-8cf6-fef65f1336c7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27f7cea6-a66d-459e-a66b-60ed53ac6920}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3f386698-a074-470b-bf2f-e1a5ed755d26}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b7ad8c5d-327c-482d-8894-42b86f49cb31}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ac2de00c-ec7d-4080-b9aa-6463c5abff3e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d218acc2-3971-42ef-b27b-01622b9470ce}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{057b92cd-59b1-4dfb-8598-ab58c9fb0bb1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1ed02ec9-6e6e-42cf-8197-c9603bfb7398}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0e91aef8-d458-4a33-9a46-d2538e223f4a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{acef8ef4-5e20-4932-8cf6-fef65f1336c7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27f7cea6-a66d-459e-a66b-60ed53ac6920}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/7.33e/calc.xlsx
+++ b/7.33e/calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12390"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,9 +1157,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1205,9 +1202,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1343,9 +1337,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1371,9 +1362,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,1081 +1792,1080 @@
   <dimension ref="B1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="10" customHeight="1"/>
     <row r="2" customHeight="1" spans="2:7">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" customHeight="1" spans="2:7">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>69</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>22</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>57</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>25</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>43</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>19</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>34</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>20</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>52</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>39</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>26</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>72</v>
       </c>
     </row>
     <row r="6" s="19" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>4</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <f>C3*$D$6</f>
         <v>276</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <f>D3*$D$6</f>
         <v>88</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f>E3*$D$6</f>
         <v>228</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <f>F3*$D$6</f>
         <v>100</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f>G3*$D$6</f>
         <v>352</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <f>C4*$E$6</f>
         <v>172</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <f>D4*$E$6</f>
         <v>76</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <f>E4*$E$6</f>
         <v>136</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <f>F4*$E$6</f>
         <v>80</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <f>G4*$E$6</f>
         <v>236</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <f>C5*$E$6</f>
         <v>208</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f>D5*$E$6</f>
         <v>100</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>E5*$E$6</f>
         <v>156</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <f>F5*$E$6</f>
         <v>104</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <f>G5*$E$6</f>
         <v>288</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:7">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <v>20</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="38">
         <v>5</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <f>C12*D12+E12</f>
         <v>25</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="35">
         <f>F12-C12</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:7">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="36">
         <v>22</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>1</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <v>5</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <f t="shared" ref="F13:F27" si="0">C13*D13+E13</f>
         <v>27</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="35">
         <f>F13-C13</f>
         <v>5</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>1.4</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>0.9</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <v>0</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="35">
         <f>F14-C14</f>
         <v>-0.14</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>0.33</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>0.8</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <v>0</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <f t="shared" si="0"/>
         <v>0.264</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <f>F15-C15</f>
         <v>-0.066</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="44">
         <v>150</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>1.2</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>0</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="45">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <f>F16-C16</f>
         <v>30</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="47">
         <v>1250</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>1.3</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <v>0</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="48">
         <f t="shared" si="0"/>
         <v>1625</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <f t="shared" ref="G17:G27" si="1">F17-C17</f>
         <v>375</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:10">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>20</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>1</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <v>2</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J18" s="37"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" customHeight="1" spans="2:11">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="52">
         <v>2.2</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="37">
         <v>1</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="38">
         <v>0.5</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="51">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="35">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <f>F19*29+F18</f>
         <v>100.3</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="35">
         <f t="shared" ref="J19:J23" si="2">C19*29+C18</f>
         <v>83.8</v>
       </c>
-      <c r="K19" s="86">
+      <c r="K19" s="83">
         <f t="shared" ref="K19:K23" si="3">I19-J19</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:11">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>14</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="37">
         <v>1</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <v>2</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="86"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="83"/>
     </row>
     <row r="21" customHeight="1" spans="2:11">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="57">
         <v>1.4</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="37">
         <v>1</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="38">
         <v>0.5</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="56">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="58">
         <f>F21*29+F20</f>
         <v>71.1</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="35">
         <f t="shared" si="2"/>
         <v>54.6</v>
       </c>
-      <c r="K21" s="86">
+      <c r="K21" s="83">
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:11">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="60">
         <v>34</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="37">
         <v>1</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="38">
         <v>2</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="61">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="35">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="86"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" customHeight="1" spans="2:11">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="62">
         <v>2.8</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="37">
         <v>1</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="38">
         <v>0.5</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="61">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="35">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="63">
         <f>F23*29+F22</f>
         <v>131.7</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="35">
         <f t="shared" si="2"/>
         <v>115.2</v>
       </c>
-      <c r="K23" s="86">
+      <c r="K23" s="83">
         <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="65">
         <v>300</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="37">
         <v>1.1</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="38">
         <v>0</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="66">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="35">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:12">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="68">
         <v>0.6</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="37">
         <v>1.2</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="69">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="35">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="111">
+      <c r="I25" s="107">
         <f>0.03*3.14/F25</f>
         <v>0.130833333333333</v>
       </c>
-      <c r="J25" s="112" t="s">
+      <c r="J25" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="72"/>
-      <c r="L25" s="112" t="s">
+      <c r="K25" s="70"/>
+      <c r="L25" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:12">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="41">
         <v>1800</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="37">
         <v>1</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="38">
         <v>200</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="42">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="35">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114" t="s">
+      <c r="I26" s="109"/>
+      <c r="J26" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114" t="s">
+      <c r="K26" s="110"/>
+      <c r="L26" s="110" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:12">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="72">
         <v>800</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="73">
         <v>1</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="74">
         <v>400</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="75">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="35">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="J27" s="114" t="s">
+      <c r="J27" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114" t="s">
+      <c r="K27" s="110"/>
+      <c r="L27" s="110" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="10:12">
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
     </row>
     <row r="29" customHeight="1" spans="2:6">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="3">
         <f>D30-C30</f>
         <v>0.25</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" customHeight="1" spans="2:10">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="36">
         <v>3</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>3.25</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="77">
         <f>D30+$D$29</f>
         <v>3.5</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="78">
         <f>E30+$D$29</f>
         <v>3.75</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="79">
         <f>F30+$D$29</f>
         <v>4</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="78">
         <f>G30+$D$29</f>
         <v>4.25</v>
       </c>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
     </row>
     <row r="31" customHeight="1" spans="2:10">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84" t="s">
+      <c r="B31" s="80"/>
+      <c r="C31" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="82">
         <v>0.75</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" customHeight="1" spans="2:10">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="36">
         <f>C30*$D$31</f>
         <v>2.25</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <f t="shared" ref="D32:J32" si="4">D30*$D$31</f>
         <v>2.4375</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="77">
         <f t="shared" si="4"/>
         <v>2.625</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="78">
         <f t="shared" si="4"/>
         <v>2.8125</v>
       </c>
-      <c r="G32" s="81">
+      <c r="G32" s="79">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H32" s="82">
+      <c r="H32" s="78">
         <f t="shared" si="4"/>
         <v>3.1875</v>
       </c>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="87"/>
-      <c r="C33" s="84" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="81">
         <v>2</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" customHeight="1" spans="2:6">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="60">
         <v>0.65</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="60">
         <f>C34*D33</f>
         <v>1.3</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="87"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="37">
+      <c r="B35" s="84"/>
+      <c r="D35" s="35">
         <v>1.2</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="26"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="89">
-        <v>0.6</v>
-      </c>
-      <c r="D36" s="90">
+      <c r="C36" s="86">
+        <v>0.35</v>
+      </c>
+      <c r="D36" s="87">
         <f>C36*D35</f>
-        <v>0.72</v>
-      </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
+        <v>0.42</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="78"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="36" t="s">
+      <c r="B38" s="76"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="37" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="90">
         <v>550</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="37">
         <v>1.5</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="38">
         <v>0</v>
       </c>
-      <c r="F39" s="95">
+      <c r="F39" s="91">
         <f t="shared" ref="F39:F44" si="5">C39*D39+E39</f>
         <v>825</v>
       </c>
-      <c r="G39" s="96">
+      <c r="G39" s="92">
         <f t="shared" ref="G39:G44" si="6">F39-C39</f>
         <v>275</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="94">
         <v>0</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="37">
         <v>0</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="38">
         <v>0</v>
       </c>
-      <c r="F40" s="99">
+      <c r="F40" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="101">
+      <c r="C41" s="97">
         <v>20</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="37">
         <v>0.9</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="38">
         <v>0</v>
       </c>
-      <c r="F41" s="102">
+      <c r="F41" s="98">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="35">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="55">
         <v>200</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="37">
         <v>0.8</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="38">
         <v>0</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="56">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="35">
         <f t="shared" si="6"/>
         <v>-40</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="36">
         <v>2</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="37">
         <v>1</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="38">
         <v>1</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="39">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="35">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="36">
         <v>2</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="37">
         <v>1</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="38">
         <v>1</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="39">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="35">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="50">
         <v>75</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="37">
         <v>2</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="38">
         <v>0</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="51">
         <f t="shared" ref="F45:F52" si="7">C45*D45+E45</f>
         <v>150</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="35">
         <f t="shared" ref="G45:G52" si="8">F45-C45</f>
         <v>75</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="62">
+      <c r="C46" s="60">
         <v>75</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="37">
         <v>1.6</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="38">
         <v>0</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="61">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="35">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="94">
         <v>23</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="37">
         <v>1.6</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="38">
         <v>0</v>
       </c>
-      <c r="F47" s="103">
+      <c r="F47" s="99">
         <f t="shared" si="7"/>
         <v>36.8</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="35">
         <f t="shared" si="8"/>
         <v>13.8</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="101">
+      <c r="C48" s="97">
         <v>425</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="37">
         <v>1.5</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="104">
+      <c r="E48" s="38"/>
+      <c r="F48" s="100">
         <f t="shared" si="7"/>
         <v>637.5</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="35">
         <f t="shared" si="8"/>
         <v>212.5</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="106">
+      <c r="C49" s="102">
         <v>1</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="37">
         <v>1.2</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="38">
         <v>0</v>
       </c>
-      <c r="F49" s="107">
+      <c r="F49" s="103">
         <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="35">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="109">
+      <c r="C50" s="105">
         <v>0.2</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="37">
         <v>0.8</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="38">
         <v>0</v>
       </c>
-      <c r="F50" s="110">
+      <c r="F50" s="106">
         <f t="shared" si="7"/>
         <v>0.16</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="35">
         <f t="shared" si="8"/>
         <v>-0.04</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="41">
         <v>400</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="37">
         <v>2</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="38">
         <v>400</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F51" s="42">
         <f t="shared" si="7"/>
         <v>1200</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="35">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="72">
         <v>3.34</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="73">
         <v>2</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="74">
         <v>3</v>
       </c>
-      <c r="F52" s="77">
+      <c r="F52" s="75">
         <f t="shared" si="7"/>
         <v>9.68</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="35">
         <f t="shared" si="8"/>
         <v>6.34</v>
       </c>
@@ -2893,7 +2880,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bd5ac65a-25de-46d8-8d91-91aadf75883a}</x14:id>
+          <x14:id>{a95736d6-fc04-4621-9ad4-799501132c32}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2907,7 +2894,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6fbf4045-186a-4b6a-bcfe-e61038ff5eef}</x14:id>
+          <x14:id>{8bf7b762-bc40-4bcd-ac6b-2f57529cc487}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2919,7 +2906,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ccd12b24-398e-4f63-b886-2c7baa016e00}</x14:id>
+          <x14:id>{a64c11f4-a439-44d8-8a21-f6fc8b0110ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2933,7 +2920,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3f9bf26-3736-4a31-9a67-cc0858aee72d}</x14:id>
+          <x14:id>{80e556b2-cda6-4d87-9402-abd928568dec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2947,7 +2934,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a971b412-a997-4acb-a742-866220251ce4}</x14:id>
+          <x14:id>{62aa0d2f-7403-4ebc-af64-3d7981fbcee1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2960,7 +2947,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bd5ac65a-25de-46d8-8d91-91aadf75883a}">
+          <x14:cfRule type="dataBar" id="{a95736d6-fc04-4621-9ad4-799501132c32}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2971,7 +2958,7 @@
           <xm:sqref>C30:J30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6fbf4045-186a-4b6a-bcfe-e61038ff5eef}">
+          <x14:cfRule type="dataBar" id="{8bf7b762-bc40-4bcd-ac6b-2f57529cc487}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2979,7 +2966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ccd12b24-398e-4f63-b886-2c7baa016e00}">
+          <x14:cfRule type="dataBar" id="{a64c11f4-a439-44d8-8a21-f6fc8b0110ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2990,7 +2977,7 @@
           <xm:sqref>C30:H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b3f9bf26-3736-4a31-9a67-cc0858aee72d}">
+          <x14:cfRule type="dataBar" id="{80e556b2-cda6-4d87-9402-abd928568dec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3001,7 +2988,7 @@
           <xm:sqref>C32:J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a971b412-a997-4acb-a742-866220251ce4}">
+          <x14:cfRule type="dataBar" id="{62aa0d2f-7403-4ebc-af64-3d7981fbcee1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3546,7 +3533,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f386698-a074-470b-bf2f-e1a5ed755d26}</x14:id>
+          <x14:id>{57d042ae-3388-45ff-a330-801e7f384ec7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3560,7 +3547,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7ad8c5d-327c-482d-8894-42b86f49cb31}</x14:id>
+          <x14:id>{637730de-11c7-47b7-900a-f55ed63b31b0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3574,7 +3561,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ac2de00c-ec7d-4080-b9aa-6463c5abff3e}</x14:id>
+          <x14:id>{7fb140e8-47e3-4055-a380-aaaff89537d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3588,7 +3575,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d218acc2-3971-42ef-b27b-01622b9470ce}</x14:id>
+          <x14:id>{9ce226cc-ef71-4f8c-a7b0-6aa7da0c1daa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3602,7 +3589,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{057b92cd-59b1-4dfb-8598-ab58c9fb0bb1}</x14:id>
+          <x14:id>{c414f3f8-e2f8-4b00-bbf1-71d291d2760e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3616,7 +3603,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1ed02ec9-6e6e-42cf-8197-c9603bfb7398}</x14:id>
+          <x14:id>{28f367c3-b62e-4c0c-bc91-39b564bf1ff8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3630,7 +3617,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e91aef8-d458-4a33-9a46-d2538e223f4a}</x14:id>
+          <x14:id>{96b92878-7edf-410f-a281-4942bd51689d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3644,7 +3631,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{acef8ef4-5e20-4932-8cf6-fef65f1336c7}</x14:id>
+          <x14:id>{11df072e-b4e7-4d4d-b011-0caed18c774a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3658,7 +3645,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27f7cea6-a66d-459e-a66b-60ed53ac6920}</x14:id>
+          <x14:id>{b8a78a93-0161-4487-b4c3-7385941b28ff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3670,7 +3657,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f386698-a074-470b-bf2f-e1a5ed755d26}">
+          <x14:cfRule type="dataBar" id="{57d042ae-3388-45ff-a330-801e7f384ec7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3681,7 +3668,7 @@
           <xm:sqref>D19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7ad8c5d-327c-482d-8894-42b86f49cb31}">
+          <x14:cfRule type="dataBar" id="{637730de-11c7-47b7-900a-f55ed63b31b0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3692,7 +3679,7 @@
           <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ac2de00c-ec7d-4080-b9aa-6463c5abff3e}">
+          <x14:cfRule type="dataBar" id="{7fb140e8-47e3-4055-a380-aaaff89537d9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3703,7 +3690,7 @@
           <xm:sqref>D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d218acc2-3971-42ef-b27b-01622b9470ce}">
+          <x14:cfRule type="dataBar" id="{9ce226cc-ef71-4f8c-a7b0-6aa7da0c1daa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3714,7 +3701,7 @@
           <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{057b92cd-59b1-4dfb-8598-ab58c9fb0bb1}">
+          <x14:cfRule type="dataBar" id="{c414f3f8-e2f8-4b00-bbf1-71d291d2760e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3725,7 +3712,7 @@
           <xm:sqref>B3:B22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1ed02ec9-6e6e-42cf-8197-c9603bfb7398}">
+          <x14:cfRule type="dataBar" id="{28f367c3-b62e-4c0c-bc91-39b564bf1ff8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3736,7 +3723,7 @@
           <xm:sqref>C3:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0e91aef8-d458-4a33-9a46-d2538e223f4a}">
+          <x14:cfRule type="dataBar" id="{96b92878-7edf-410f-a281-4942bd51689d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3747,7 +3734,7 @@
           <xm:sqref>D3:D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{acef8ef4-5e20-4932-8cf6-fef65f1336c7}">
+          <x14:cfRule type="dataBar" id="{11df072e-b4e7-4d4d-b011-0caed18c774a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3758,7 +3745,7 @@
           <xm:sqref>F3:F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{27f7cea6-a66d-459e-a66b-60ed53ac6920}">
+          <x14:cfRule type="dataBar" id="{b8a78a93-0161-4487-b4c3-7385941b28ff}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
